--- a/NformTester/NformTester/Keywordscripts/600.20.20.110_EditRightOnActionSetsbyPowerUser.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.110_EditRightOnActionSetsbyPowerUser.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="829">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3658,10 +3658,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Add write file Action Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3731,6 +3727,14 @@
   </si>
   <si>
     <t>"test shut down"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4690,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4823,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4854,7 +4858,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4979,7 +4983,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -5012,7 +5016,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -5128,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5159,7 +5163,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5190,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5221,7 +5225,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -5356,7 +5360,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -5377,7 +5381,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5600,7 +5604,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="20"/>
@@ -5702,7 +5706,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="20"/>
@@ -6088,7 +6092,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -6114,7 +6118,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -6140,7 +6144,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -6166,7 +6170,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -6192,7 +6196,7 @@
         <v>13</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -6278,7 +6282,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -6354,7 +6358,7 @@
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>805</v>
@@ -6432,7 +6436,7 @@
         <v>56</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -6458,10 +6462,10 @@
         <v>7</v>
       </c>
       <c r="H67" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="J67" s="5" t="b">
         <v>1</v>
@@ -6560,7 +6564,7 @@
         <v>56</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -6585,10 +6589,10 @@
         <v>7</v>
       </c>
       <c r="H72" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="J72" s="5" t="b">
         <v>0</v>
@@ -6625,7 +6629,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="5"/>
@@ -6715,7 +6719,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>197</v>
@@ -6796,7 +6800,7 @@
         <v>56</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -6901,7 +6905,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -6974,7 +6978,7 @@
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>805</v>
@@ -7049,7 +7053,7 @@
         <v>56</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -7074,10 +7078,10 @@
         <v>7</v>
       </c>
       <c r="H93" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="J93" s="5" t="b">
         <v>1</v>
@@ -7172,7 +7176,7 @@
         <v>56</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -7197,10 +7201,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I98" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="J98" s="5" t="b">
         <v>1</v>
@@ -7237,7 +7241,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -7327,7 +7331,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>197</v>
@@ -7408,7 +7412,7 @@
         <v>56</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -7456,7 +7460,7 @@
         <v>56</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -7690,7 +7694,7 @@
         <v>56</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
@@ -7738,7 +7742,7 @@
         <v>56</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.110_EditRightOnActionSetsbyPowerUser.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.110_EditRightOnActionSetsbyPowerUser.xlsx
@@ -3675,9 +3675,6 @@
     <t>"Write file testing"</t>
   </si>
   <si>
-    <t>"C:\Nform\test.txt"</t>
-  </si>
-  <si>
     <t>"test"</t>
   </si>
   <si>
@@ -3735,6 +3732,10 @@
   </si>
   <si>
     <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\test.txt"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4694,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4827,7 +4828,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -5194,7 +5195,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5225,7 +5226,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -5360,7 +5361,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -5381,7 +5382,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5604,7 +5605,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="20"/>
@@ -5706,7 +5707,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="20"/>
@@ -6092,7 +6093,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -6118,7 +6119,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -6144,7 +6145,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -6170,7 +6171,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -6196,7 +6197,7 @@
         <v>13</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -6282,7 +6283,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -6358,7 +6359,7 @@
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>805</v>
@@ -6462,10 +6463,10 @@
         <v>7</v>
       </c>
       <c r="H67" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="J67" s="5" t="b">
         <v>1</v>
@@ -6564,7 +6565,7 @@
         <v>56</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -6589,10 +6590,10 @@
         <v>7</v>
       </c>
       <c r="H72" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="J72" s="5" t="b">
         <v>0</v>
@@ -6629,7 +6630,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="5"/>
@@ -6719,7 +6720,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>197</v>
@@ -6800,7 +6801,7 @@
         <v>56</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -6905,7 +6906,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -6978,7 +6979,7 @@
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>805</v>
@@ -7078,10 +7079,10 @@
         <v>7</v>
       </c>
       <c r="H93" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="J93" s="5" t="b">
         <v>1</v>
@@ -7176,7 +7177,7 @@
         <v>56</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -7201,10 +7202,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="I98" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="J98" s="5" t="b">
         <v>1</v>
@@ -7241,7 +7242,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -7331,7 +7332,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>197</v>
@@ -7460,7 +7461,7 @@
         <v>56</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -7694,7 +7695,7 @@
         <v>56</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
@@ -7742,7 +7743,7 @@
         <v>56</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
